--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -28,490 +28,490 @@
     <t>whichAudio</t>
   </si>
   <si>
-    <t>novelaudio/72_topata3.wav</t>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
   </si>
   <si>
     <t>novelaudio/40_kototi1.wav</t>
   </si>
   <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
+  </si>
+  <si>
     <t>novelaudio/77_takopo1.wav</t>
   </si>
   <si>
-    <t>novelaudio/73_takiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa2.wav</t>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
   </si>
   <si>
     <t>novelaudio/36_pipapa2.wav</t>
   </si>
   <si>
-    <t>novelaudio/28_pipiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
   </si>
   <si>
     <t>novelaudio/80_tatato1.wav</t>
   </si>
   <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo3.wav</t>
+  </si>
+  <si>
     <t>novelaudio/30_tikipa1.wav</t>
   </si>
   <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
+    <t>novelaudio/78_kakoka3.wav</t>
   </si>
   <si>
     <t>novelaudio/49_tatopi2.wav</t>
   </si>
   <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
     <t>novelaudio/32_kipoto2.wav</t>
   </si>
   <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/40_spoon.png</t>
+  </si>
+  <si>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/66_safe.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/71_eye.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/54_toiletpaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/64_shovel.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
+  </si>
+  <si>
+    <t>pngimages/36_microwave.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
+  </si>
+  <si>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
   </si>
   <si>
     <t>pngimages/72_nose.png</t>
   </si>
   <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/69_tooth.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/76_rabbit.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
   </si>
   <si>
     <t>pngimages/73_car.png</t>
   </si>
   <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/36_microwave.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/57_flashlight.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
+    <t>pngimages/58_nail.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/48_brush.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
   </si>
   <si>
     <t>pngimages/30_mushroom.png</t>
   </si>
   <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/69_tooth.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/48_brush.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/66_safe.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
+    <t>pngimages/78_cow.png</t>
   </si>
   <si>
     <t>pngimages/49_calculator.png</t>
   </si>
   <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/64_shovel.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/71_eye.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
+    <t>pngimages/32_greenpepper.png</t>
   </si>
   <si>
     <t>pngimages/79_pig.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/54_toiletpaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/45_scissors.png</t>
-  </si>
-  <si>
-    <t>pngimages/41_piano.png</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
         <v>113</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -942,7 +942,7 @@
         <v>115</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -984,7 +984,7 @@
         <v>118</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -998,7 +998,7 @@
         <v>119</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>121</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>123</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>125</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>127</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>128</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>129</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>131</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>132</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>134</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1222,7 +1222,7 @@
         <v>135</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>137</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1264,7 +1264,7 @@
         <v>138</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1278,7 +1278,7 @@
         <v>139</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>140</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1306,7 +1306,7 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1334,7 +1334,7 @@
         <v>143</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1348,7 +1348,7 @@
         <v>144</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>145</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>146</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>150</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1488,7 +1488,7 @@
         <v>154</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1502,7 +1502,7 @@
         <v>155</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>157</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>159</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1572,7 +1572,7 @@
         <v>160</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1628,7 +1628,7 @@
         <v>164</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1642,7 +1642,7 @@
         <v>165</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -28,490 +28,490 @@
     <t>whichAudio</t>
   </si>
   <si>
-    <t>novelaudio/40_kototi2.wav</t>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
   </si>
   <si>
     <t>novelaudio/65_totipo3.wav</t>
   </si>
   <si>
+    <t>novelaudio/64_popiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
     <t>novelaudio/63_pitapa2.wav</t>
   </si>
   <si>
+    <t>novelaudio/67_tokoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
     <t>novelaudio/66_kopipa3.wav</t>
   </si>
   <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo3.wav</t>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
   </si>
   <si>
     <t>novelaudio/54_kapapa1.wav</t>
   </si>
   <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
+    <t>novelaudio/30_tikipa2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/71_eye.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/76_rabbit.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/64_shovel.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
+  </si>
+  <si>
+    <t>pngimages/73_car.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/69_tooth.png</t>
+  </si>
+  <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/36_microwave.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/48_brush.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
+  </si>
+  <si>
+    <t>pngimages/66_safe.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
   </si>
   <si>
     <t>pngimages/40_spoon.png</t>
   </si>
   <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/66_safe.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/45_scissors.png</t>
-  </si>
-  <si>
-    <t>pngimages/71_eye.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
+    <t>pngimages/58_nail.png</t>
   </si>
   <si>
     <t>pngimages/54_toiletpaper.png</t>
   </si>
   <si>
-    <t>pngimages/57_flashlight.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/64_shovel.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/36_microwave.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
-  </si>
-  <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/69_tooth.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/73_car.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/48_brush.png</t>
-  </si>
-  <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
     <t>pngimages/30_mushroom.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
         <v>112</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -914,7 +914,7 @@
         <v>113</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -928,7 +928,7 @@
         <v>114</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -942,7 +942,7 @@
         <v>115</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -956,7 +956,7 @@
         <v>116</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -984,7 +984,7 @@
         <v>118</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -998,7 +998,7 @@
         <v>119</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>122</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>123</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>125</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>126</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>128</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>129</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>130</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>131</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1222,7 +1222,7 @@
         <v>135</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>136</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1278,7 +1278,7 @@
         <v>139</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>140</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1320,7 +1320,7 @@
         <v>142</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>146</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>149</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>150</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1446,7 +1446,7 @@
         <v>151</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>152</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1502,7 +1502,7 @@
         <v>155</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>159</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1572,7 +1572,7 @@
         <v>160</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1600,7 +1600,7 @@
         <v>162</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1614,7 +1614,7 @@
         <v>163</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -28,490 +28,490 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
     <t>novelaudio/71_kotato2.wav</t>
   </si>
   <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.wav</t>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
   </si>
   <si>
     <t>novelaudio/47_takiko3.wav</t>
   </si>
   <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
     <t>novelaudio/60_pipopa2.wav</t>
   </si>
   <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
     <t>novelaudio/54_kapapa1.wav</t>
   </si>
   <si>
-    <t>novelaudio/30_tikipa2.wav</t>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
   </si>
   <si>
     <t>pngimages/71_eye.png</t>
   </si>
   <si>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/40_spoon.png</t>
+  </si>
+  <si>
+    <t>pngimages/58_nail.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/48_brush.png</t>
+  </si>
+  <si>
+    <t>pngimages/73_car.png</t>
+  </si>
+  <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
     <t>pngimages/74_boat.png</t>
   </si>
   <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/76_rabbit.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
+  </si>
+  <si>
+    <t>pngimages/69_tooth.png</t>
+  </si>
+  <si>
+    <t>pngimages/36_microwave.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
     <t>pngimages/44_envelope.png</t>
   </si>
   <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/66_safe.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
+  </si>
+  <si>
     <t>pngimages/53_hammer.png</t>
   </si>
   <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
-  </si>
-  <si>
-    <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
+    <t>pngimages/30_mushroom.png</t>
   </si>
   <si>
     <t>pngimages/64_shovel.png</t>
   </si>
   <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
     <t>pngimages/47_notebook.png</t>
   </si>
   <si>
-    <t>pngimages/73_car.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/69_tooth.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/36_microwave.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
     <t>pngimages/60_firewood.png</t>
   </si>
   <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/45_scissors.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/57_flashlight.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/48_brush.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/66_safe.png</t>
-  </si>
-  <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
-  </si>
-  <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
     <t>pngimages/54_toiletpaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/30_mushroom.png</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
         <v>112</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -914,7 +914,7 @@
         <v>113</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -984,7 +984,7 @@
         <v>118</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>120</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>127</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>128</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>129</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>132</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>136</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1264,7 +1264,7 @@
         <v>138</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1306,7 +1306,7 @@
         <v>141</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1320,7 +1320,7 @@
         <v>142</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1390,7 +1390,7 @@
         <v>147</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>149</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>150</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>152</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>153</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1516,7 +1516,7 @@
         <v>156</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1544,7 +1544,7 @@
         <v>158</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>159</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1614,7 +1614,7 @@
         <v>163</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1628,7 +1628,7 @@
         <v>164</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1642,7 +1642,7 @@
         <v>165</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -28,490 +28,490 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
     <t>novelaudio/67_tokoki2.wav</t>
   </si>
   <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
   </si>
   <si>
     <t>novelaudio/55_pikiki3.wav</t>
   </si>
   <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
+    <t>novelaudio/44_pokato1.wav</t>
   </si>
   <si>
     <t>novelaudio/42_tokota3.wav</t>
   </si>
   <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/69_tooth.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/48_brush.png</t>
+  </si>
+  <si>
+    <t>pngimages/36_microwave.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/66_safe.png</t>
+  </si>
+  <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/73_car.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
+  </si>
+  <si>
+    <t>pngimages/64_shovel.png</t>
+  </si>
+  <si>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/76_rabbit.png</t>
+  </si>
+  <si>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/54_toiletpaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/30_mushroom.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
+  </si>
+  <si>
+    <t>pngimages/71_eye.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
+    <t>pngimages/58_nail.png</t>
+  </si>
+  <si>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/40_spoon.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
   </si>
   <si>
     <t>pngimages/67_laptop.png</t>
   </si>
   <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/71_eye.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
   </si>
   <si>
     <t>pngimages/57_flashlight.png</t>
-  </si>
-  <si>
-    <t>pngimages/48_brush.png</t>
-  </si>
-  <si>
-    <t>pngimages/73_car.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
-    <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/69_tooth.png</t>
-  </si>
-  <si>
-    <t>pngimages/36_microwave.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
-  </si>
-  <si>
-    <t>pngimages/45_scissors.png</t>
-  </si>
-  <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/66_safe.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/30_mushroom.png</t>
-  </si>
-  <si>
-    <t>pngimages/64_shovel.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
-  </si>
-  <si>
-    <t>pngimages/54_toiletpaper.png</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
         <v>113</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -956,7 +956,7 @@
         <v>116</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>120</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>121</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>122</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>123</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>124</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>125</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>130</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>131</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>132</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1222,7 +1222,7 @@
         <v>135</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>136</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1320,7 +1320,7 @@
         <v>142</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1334,7 +1334,7 @@
         <v>143</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>145</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>146</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>148</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>149</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1432,7 +1432,7 @@
         <v>150</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>152</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1488,7 +1488,7 @@
         <v>154</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1558,7 +1558,7 @@
         <v>159</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1572,7 +1572,7 @@
         <v>160</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1586,7 +1586,7 @@
         <v>161</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1600,7 +1600,7 @@
         <v>162</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="168">
   <si>
     <t>firstAudio</t>
   </si>
@@ -28,6 +28,9 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>currentPhase</t>
+  </si>
+  <si>
     <t>novelaudio/64_popiti2.wav</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -869,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,761 +894,926 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55">
         <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\aoiConditions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7261E8B-BEB5-42D6-BBB0-4A4713155149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,328 +37,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/64_popiti2.wav</t>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
   </si>
   <si>
     <t>novelaudio/69_kotota3.wav</t>
   </si>
   <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.wav</t>
   </si>
   <si>
     <t>novelaudio/73_takiti2.wav</t>
   </si>
   <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
     <t>novelaudio/29_pipito2.wav</t>
   </si>
   <si>
-    <t>novelaudio/59_tipoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.wav</t>
-  </si>
-  <si>
     <t>novelaudio/67_tokoki1.wav</t>
   </si>
   <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
+    <t>novelaudio/44_pokato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
   </si>
   <si>
     <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
   </si>
   <si>
     <t>pngimages/69_tooth.png</t>
@@ -523,8 +529,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +593,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -633,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,9 +679,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,6 +731,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,14 +924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -915,7 +971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -932,7 +988,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -949,7 +1005,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -966,7 +1022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1039,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1056,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1107,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1124,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1141,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1158,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1119,7 +1175,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1192,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1209,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1277,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1238,7 +1294,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +1345,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1362,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1340,7 +1396,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1413,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1374,7 +1430,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1447,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1408,7 +1464,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1425,7 +1481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1459,7 +1515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +1532,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1510,7 +1566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1527,7 +1583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1544,7 +1600,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +1617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1578,7 +1634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1651,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1646,7 +1702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1663,7 +1719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1680,7 +1736,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1753,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1714,7 +1770,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1731,7 +1787,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1748,7 +1804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1765,7 +1821,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1782,7 +1838,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1799,7 +1855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThomasY21\Dropbox\Documents\Prep\Koehnlein\experiment\aoiConditions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7261E8B-BEB5-42D6-BBB0-4A4713155149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -529,8 +523,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,14 +587,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -647,7 +633,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,27 +665,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,24 +699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -924,20 +874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -971,7 +915,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -988,7 +932,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +949,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +983,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1000,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1017,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1034,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1051,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1085,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1119,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1136,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1153,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1187,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +1204,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1221,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +1272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1289,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1379,7 +1323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1396,7 +1340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1430,7 +1374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1464,7 +1408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1425,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1498,7 +1442,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1515,7 +1459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1532,7 +1476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1549,7 +1493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1566,7 +1510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1583,7 +1527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1544,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1617,7 +1561,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1634,7 +1578,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1651,7 +1595,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1612,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1685,7 +1629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1702,7 +1646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1719,7 +1663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1736,7 +1680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1753,7 +1697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1770,7 +1714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1787,7 +1731,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1804,7 +1748,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1821,7 +1765,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1838,7 +1782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1799,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -31,490 +31,490 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/69_kotota2.wav</t>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
   </si>
   <si>
     <t>novelaudio/45_totaka2.wav</t>
   </si>
   <si>
-    <t>novelaudio/48_pakipa3.wav</t>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
   </si>
   <si>
     <t>novelaudio/36_pipapa3.wav</t>
   </si>
   <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
   </si>
   <si>
     <t>novelaudio/73_takiti1.wav</t>
   </si>
   <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
+    <t>novelaudio/40_kototi1.wav</t>
   </si>
   <si>
     <t>novelaudio/76_patoti2.wav</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/58_nail.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
   </si>
   <si>
     <t>pngimages/69_tooth.png</t>
   </si>
   <si>
-    <t>pngimages/45_scissors.png</t>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/64_shovel.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
   </si>
   <si>
     <t>pngimages/48_brush.png</t>
   </si>
   <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
     <t>pngimages/36_microwave.png</t>
   </si>
   <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/30_mushroom.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
+  </si>
+  <si>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/54_toiletpaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/71_eye.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
   </si>
   <si>
     <t>pngimages/66_safe.png</t>
   </si>
   <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
     <t>pngimages/73_car.png</t>
   </si>
   <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/64_shovel.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
+    <t>pngimages/40_spoon.png</t>
   </si>
   <si>
     <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/54_toiletpaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/30_mushroom.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/71_eye.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/57_flashlight.png</t>
   </si>
   <si>
     <t>test3</t>
@@ -909,7 +909,7 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>167</v>
@@ -926,7 +926,7 @@
         <v>114</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>167</v>
@@ -943,7 +943,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>167</v>
@@ -960,7 +960,7 @@
         <v>116</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>167</v>
@@ -977,7 +977,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>167</v>
@@ -994,7 +994,7 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>167</v>
@@ -1028,7 +1028,7 @@
         <v>120</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>167</v>
@@ -1079,7 +1079,7 @@
         <v>123</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>167</v>
@@ -1130,7 +1130,7 @@
         <v>126</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>167</v>
@@ -1164,7 +1164,7 @@
         <v>128</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>167</v>
@@ -1181,7 +1181,7 @@
         <v>129</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>167</v>
@@ -1215,7 +1215,7 @@
         <v>131</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>167</v>
@@ -1232,7 +1232,7 @@
         <v>132</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>167</v>
@@ -1249,7 +1249,7 @@
         <v>133</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>167</v>
@@ -1266,7 +1266,7 @@
         <v>134</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>167</v>
@@ -1334,7 +1334,7 @@
         <v>138</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>167</v>
@@ -1351,7 +1351,7 @@
         <v>139</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>167</v>
@@ -1368,7 +1368,7 @@
         <v>140</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>167</v>
@@ -1402,7 +1402,7 @@
         <v>142</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>167</v>
@@ -1436,7 +1436,7 @@
         <v>144</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>167</v>
@@ -1470,7 +1470,7 @@
         <v>146</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>167</v>
@@ -1504,7 +1504,7 @@
         <v>148</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>167</v>
@@ -1572,7 +1572,7 @@
         <v>152</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>167</v>
@@ -1606,7 +1606,7 @@
         <v>154</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>167</v>
@@ -1623,7 +1623,7 @@
         <v>155</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>167</v>
@@ -1657,7 +1657,7 @@
         <v>157</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1674,7 +1674,7 @@
         <v>158</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>167</v>
@@ -1691,7 +1691,7 @@
         <v>159</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>167</v>
@@ -1725,7 +1725,7 @@
         <v>161</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>167</v>
@@ -1742,7 +1742,7 @@
         <v>162</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>167</v>
@@ -1776,7 +1776,7 @@
         <v>164</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -1793,7 +1793,7 @@
         <v>165</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>167</v>
@@ -1810,7 +1810,7 @@
         <v>166</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>167</v>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
+    <t>novelaudio/65_totipo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.mp3</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.mp3</t>
+    <t>novelaudio/65_totipo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.ogg</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>

--- a/aoiConditions/test3Conditions.xlsx
+++ b/aoiConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.ogg</t>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>
